--- a/raw/1968election.xlsx
+++ b/raw/1968election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F8019F-8888-4048-872D-254966328D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42694FAD-AB18-D744-AF68-E4E934C154D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="17180" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6585" uniqueCount="2168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="2168">
   <si>
     <t>State</t>
   </si>
@@ -7377,8 +7377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="210" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="210" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -11189,8 +11189,8 @@
       <c r="C168" t="s">
         <v>17</v>
       </c>
-      <c r="D168" t="s">
-        <v>37</v>
+      <c r="D168">
+        <v>4</v>
       </c>
       <c r="E168" t="s">
         <v>1762</v>
